--- a/Smt.SDK.Test/bin/Debug/Excel/运费模板/菜鸟特货专线－简易.xlsx
+++ b/Smt.SDK.Test/bin/Debug/Excel/运费模板/菜鸟特货专线－简易.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">国家(二字码或中文)</t>
   </si>
@@ -45,16 +45,7 @@
     <t xml:space="preserve">RU</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">ES</t>
   </si>
 </sst>
 </file>
@@ -134,26 +125,104 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.155</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.155</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.025</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.025</v>
+      </c>
+      <c r="H3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.0255</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.0255</v>
+      </c>
+      <c r="H4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.027</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.027</v>
+      </c>
+      <c r="H5">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
